--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B98"/>
+  <dimension ref="A2:B292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,6 +1585,2334 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>IP5-ECB</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>11,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>IP5-ECN</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>10,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>A5-BAT-C2O</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>A5C-BAT-C2O</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>IP5C-ECN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>10,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>IP5S-ECN-REL</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>10,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>A1453-BAT</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>PP-A5S-EINT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>IP5S-ECB-REL</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>10,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ECB-IP6</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>944726</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>11,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ECN-IP6</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>10,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>IP6-WHT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>8,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>IP6-BLK</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>8,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>PP0290</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>6,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>IP6BAT-TI</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>5,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>A1549-BAT</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>A6-U2402</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>3,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>IP6S-ADHB20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TR610A3B</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>A7-U4001</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PP5921</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PP-A6-CCB+</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PP-A6-CCG+</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>A6-PM8019</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PP-A6-TORXA</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PP-A6-LENN</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PP-A6-SIMG</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>PP-A6-CARR+</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PP5907</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>PP-A6-CAVT+</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>PP-A6-POW+</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PP-A6-NCMH</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PP5909</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PP-A6+-BHCO</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PP-A6+-BHCA</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PP-A6-BHCN</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PP-A6-VOL+</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>A6-U1501</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PP-A6-WIFI</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>FL2400</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>U3703</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PP-A6S-SBAT</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>PP-A6-LENA</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>PP-A6-SIGN</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>PP-A6-TORXG</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>PP-A6-VIS</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>PP-A6-EINT</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>PP-A6-HP</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>PP-A6-SIMO</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>PP-A6-VIB</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PP-A6-SIMA</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>IP6S-REL-BLK</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>17,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>IP6S-REL-WHT</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>15,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>A6S-ECB-ESSE</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>10,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>A6S-ECN-ESSE</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>10,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>IP6S-BLK</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>6,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>IP6S-WHT</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>6,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>PP0290</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>6,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>IP6SBAT-TI</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>A1633-BAT</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>4,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>IP6S-ADHB20</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TR610A3B</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>A7-U4001</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>PP-A6S-CCA+</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>PP-A6S-CCGF+</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>PP5923</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PP-A6S-CCB+</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>PP-A6S-POW+</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PP-A6S-CAVT+</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PP5922</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>PP-A6S-FI</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PP5907</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>PP-A6S+-BHCR</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>PP-A6S-BHCN</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PP-A6S+-BHCO</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>U2101-IPH6S</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>PP-A6S-BHCA</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>A7-U3101</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>PP-A6S-WIFI</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>PP-A6S-LENA</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>FL2400</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>U3703</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>A6S-ADHEN</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>PP-A6S-TORXO</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PP-A6S-TORXA</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PP-A6S-SIMO</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PP-A6S-SBAT</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>0,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PP-A6S-LENO</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PP-A6S-LENN</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PP-A6S-EINT</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>PP-A6S-SIMA</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>PP-A6S-SIMG</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>PP-A6S-HP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>I8-U5650</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>PP-A6S-SIMR</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>0,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>PP-A6S-CARR+</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>IP5-ECB</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>11,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>IP5-ECN</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>10,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>A5-BAT-C2O</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>A5C-BAT-C2O</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>IP5C-ECN</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>IP5S-ECN-REL</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>10,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>A1453-BAT</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>PP-A5S-EINT</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>IP5S-ECB-REL</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ECB-IP6</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>944726</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>11,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ECN-IP6</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>10,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>IP6-WHT</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>8,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>IP6-BLK</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>8,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>PP0290</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>6,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>IP6BAT-TI</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>5,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>A1549-BAT</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>A6-U2402</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>3,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>IP6S-ADHB20</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>TR610A3B</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>A7-U4001</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>PP5921</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>PP-A6-CCB+</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>PP-A6-CCG+</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>A6-PM8019</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>PP-A6-TORXA</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>PP-A6-LENN</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>PP-A6-SIMG</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>PP-A6-CARR+</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>PP5907</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>PP-A6-CAVT+</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>PP-A6-POW+</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>PP-A6-NCMH</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>PP5909</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>PP-A6+-BHCO</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>PP-A6+-BHCA</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>PP-A6-BHCN</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>PP-A6-VOL+</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>A6-U1501</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>PP-A6-WIFI</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>FL2400</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>U3703</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>PP-A6S-SBAT</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>0,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>PP-A6-LENA</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>PP-A6-SIGN</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>PP-A6-TORXG</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>PP-A6-VIS</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>PP-A6-EINT</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>PP-A6-HP</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>PP-A6-SIMO</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>PP-A6-VIB</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>PP-A6-SIMA</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>IP6S-REL-BLK</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>17,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>IP6S-REL-WHT</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>15,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>A6S-ECB-ESSE</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>10,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>A6S-ECN-ESSE</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>10,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>IP6S-BLK</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>6,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>IP6S-WHT</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>6,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>PP0290</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>6,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>IP6SBAT-TI</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>5,20</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>A1633-BAT</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>4,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>IP6S-ADHB20</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>TR610A3B</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>A7-U4001</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>PP-A6S-CCA+</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>PP-A6S-CCGF+</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>PP5923</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>PP-A6S-CCB+</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>PP-A6S-POW+</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>PP-A6S-CAVT+</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>PP5922</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>PP-A6S-FI</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>PP5907</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>PP-A6S+-BHCR</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>PP-A6S-BHCN</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>PP-A6S+-BHCO</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>U2101-IPH6S</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>PP-A6S-BHCA</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>A7-U3101</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>PP-A6S-WIFI</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>PP-A6S-LENA</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>FL2400</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>U3703</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>A6S-ADHEN</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>PP-A6S-TORXO</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>PP-A6S-TORXA</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>PP-A6S-SIMO</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>PP-A6S-SBAT</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>0,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>PP-A6S-LENO</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>PP-A6S-LENN</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>PP-A6S-EINT</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>PP-A6S-SIMA</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>PP-A6S-SIMG</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>PP-A6S-HP</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>I8-U5650</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>PP-A6S-SIMR</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>0,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>PP-A6S-CARR+</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B66"/>
+  <dimension ref="A2:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,780 +424,432 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AXSM-EC-SOL</t>
+          <t>PP-AI3-LCD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>57,50</t>
+          <t>18,93</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPXSM-HOLED</t>
+          <t>A1389-BAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>36,50</t>
+          <t>17,01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IPXS-CARR</t>
+          <t>PP-AI4-TCB+</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25,70</t>
+          <t>5,51</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>116633</t>
+          <t>PP-AI4-TCN+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23,70</t>
+          <t>5,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IPXSM-EC-INC</t>
+          <t>A1416-CARR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21,50</t>
+          <t>1,62</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>123275</t>
+          <t>PP-AI3-WIFI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14,20</t>
+          <t>1,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A1921-BAT-TI</t>
+          <t>A1416-CAVT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9,03</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>513339</t>
+          <t>PP-AI4-CC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>1,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IPXSMBAT-WBMS</t>
+          <t>PP-AI4-VOL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IPXSM-CCB-REL</t>
+          <t>PP-AI4-NBH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7,20</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PP0290</t>
+          <t>PP-AI3-CHAN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IPXSM-CCO-REL</t>
+          <t>PP-AI3-CHAB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6,60</t>
+          <t>0,48</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IPXSM-CCN-REL</t>
+          <t>PP-AI3-LCD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>18,93</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>462876</t>
+          <t>A1389-BAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>17,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IXS-U_WLAN_W</t>
+          <t>PP-AI4-TCB+</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>5,51</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>142689</t>
+          <t>PP-AI4-TCN+</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>5,23</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AXSM-QIVOL</t>
+          <t>A1416-CARR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>1,62</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AXSM-PROX</t>
+          <t>PP-AI3-WIFI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>1,43</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AXSM-LECTSIM</t>
+          <t>A1416-CAVT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AXSM-VOL</t>
+          <t>PP-AI4-CC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>1,31</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AXSM-WIFI</t>
+          <t>PP-AI4-VOL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IXSM-CAMAV-IR</t>
+          <t>PP-AI4-NBH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IPXSM-VAN-LH</t>
+          <t>PP-AI3-CHAN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I8-U6300</t>
+          <t>PP-AI3-CHAB</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,48</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IX-U4700</t>
+          <t>PP-AI3-LCD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>18,93</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IPXSM-VAB-LH</t>
+          <t>A1389-BAT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>17,01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IX-U4400</t>
+          <t>PP-AI4-TCB+</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>5,51</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IPXS-LENC</t>
+          <t>PP-AI4-TCN+</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>5,23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AXSM-VIB</t>
+          <t>A1416-CARR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,62</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PP5314</t>
+          <t>PP-AI3-WIFI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,43</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AXS-GPS</t>
+          <t>A1416-CAVT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IXS-338S00425</t>
+          <t>PP-AI4-CC</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,31</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AXS-POW</t>
+          <t>PP-AI4-VOL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IX-U5600</t>
+          <t>PP-AI4-NBH</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I8-U3400</t>
+          <t>PP-AI3-CHAN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IXS-J5800</t>
+          <t>PP-AI3-CHAB</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>IXS-JLAT_A</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>IXS-J3500</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>IXS-J3900</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>IXS-J4600</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>IXS-338S00411</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>IXS-U3300</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>IXS-J_UAT2</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>IXS-J_UAT1</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>IXS-J4300</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>IXS-J4500</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>IXS-J6400</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>IXS-J4000</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>IX-U4210</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>0,70</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>I8-J3200</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>AXSM-SBAT</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>0,60</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>AXSM-SIMO</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>AXSM-SIMA</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>AXSM-SIMGS</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>526979</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>0,50</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>IXS-CCSOUD-N</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>0,50</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>IXS-CCSOUD-O</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>0,50</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>IXS-J5400</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
           <t>0,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>IXS-J5700</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>PP5313</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>AXMS-BUZZ</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>IPXSM-VAO-LH</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>IPXSM-ADHBMS</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>IX-U3100</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>AXSM-ADHEN</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>0,40</t>
         </is>
       </c>
     </row>

--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B37"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,430 +424,298 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PP-AI3-LCD</t>
+          <t>RN11PP-EC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18,93</t>
+          <t>72,90</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A1389-BAT</t>
+          <t>PP0290</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17,01</t>
+          <t>6,56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PP-AI4-TCB+</t>
+          <t>AI13PM-EC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>311,00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PP-AI4-TCN+</t>
+          <t>AI13P-CAMARR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>42,18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A1416-CARR</t>
+          <t>IP13PM-CCN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>28,70</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PP-AI3-WIFI</t>
+          <t>708330</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>23,70</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A1416-CAVT</t>
+          <t>A2643-BAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>16,63</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PP-AI4-CC</t>
+          <t>IP13PM-CAMAV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>11,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PP-AI4-VOL</t>
+          <t>PP0290</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>6,56</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PP-AI4-NBH</t>
+          <t>AI13PM-NFC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>6,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PP-AI3-CHAN</t>
+          <t>IP13PM-VIB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>6,03</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PP-AI3-CHAB</t>
+          <t>AI13PM-NPOW</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>3,52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PP-AI3-LCD</t>
+          <t>AI13PM-PROX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18,93</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A1389-BAT</t>
+          <t>AI13PM-WL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17,01</t>
+          <t>2,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PP-AI4-TCB+</t>
+          <t>IP13P-LENS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>1,62</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PP-AI4-TCN+</t>
+          <t>AI13P-BT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>1,24</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A1416-CARR</t>
+          <t>AI13P-TSIM-A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,48</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PP-AI3-WIFI</t>
+          <t>AI13P-TSIM-O</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,48</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A1416-CAVT</t>
+          <t>AI13P-TSIM-B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,48</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PP-AI4-CC</t>
+          <t>IP13PM-ADH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PP-AI4-VOL</t>
+          <t>433319</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>7,51</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PP-AI4-NBH</t>
+          <t>AI13PM-EINT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>7,13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PP-AI3-CHAN</t>
+          <t>IP13PM-HP</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>6,84</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PP-AI3-CHAB</t>
+          <t>AI13P-TSIM-G</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PP-AI3-LCD</t>
+          <t>403090</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>18,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A1389-BAT</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>17,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>PP-AI4-TCB+</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>PP-AI4-TCN+</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>5,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A1416-CARR</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>PP-AI3-WIFI</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>A1416-CAVT</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>PP-AI4-CC</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>PP-AI4-VOL</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>PP-AI4-NBH</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>PP-AI3-CHAN</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PP-AI3-CHAB</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
         <is>
           <t>0,48</t>
         </is>
